--- a/nr-prepare-publicaton-3.1.0/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/nr-prepare-publicaton-3.1.0/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T08:32:03+00:00</t>
+    <t>2024-09-20T08:33:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
